--- a/data/Size.xlsx
+++ b/data/Size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahhapich/Desktop/Microplastic_Data_Portal-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75091980-3EFD-DF43-BA78-668620503333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1E6D2C-BC8D-1D47-A36A-0BFD82D4C480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22420" yWindow="500" windowWidth="11180" windowHeight="19420" xr2:uid="{F42CF658-CD84-3642-888F-A225030BA307}"/>
+    <workbookView xWindow="-19460" yWindow="500" windowWidth="19320" windowHeight="27300" xr2:uid="{F42CF658-CD84-3642-888F-A225030BA307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="287">
   <si>
     <t>SampleID</t>
   </si>
@@ -365,12 +365,546 @@
   </si>
   <si>
     <t>A_Treated_PE.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>A_Treated_PP.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>40 particles</t>
+  </si>
+  <si>
+    <t>A_Treated_PVC.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>3.6 particles</t>
+  </si>
+  <si>
+    <t>95 particles</t>
+  </si>
+  <si>
+    <t>B_BioTreatment.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_BioTreatment_PA.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>0.3 particles</t>
+  </si>
+  <si>
+    <t>2 particles</t>
+  </si>
+  <si>
+    <t>710 particles</t>
+  </si>
+  <si>
+    <t>B_BioTreatment_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>1350 particles</t>
+  </si>
+  <si>
+    <t>680 particles</t>
+  </si>
+  <si>
+    <t>B_BioTreatment_VINYON.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>1.2 particles</t>
+  </si>
+  <si>
+    <t>400 particles</t>
+  </si>
+  <si>
+    <t>B_Sedimentation.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Sedimentation_PA.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>750 particles</t>
+  </si>
+  <si>
+    <t>B_Sedimentation_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>4 particles</t>
+  </si>
+  <si>
+    <t>B_Sedimentation_VINYON.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Ozonation.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Ozonation_PA.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>1.7 particles</t>
+  </si>
+  <si>
+    <t>B_Ozonation_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>2.2 particles</t>
+  </si>
+  <si>
+    <t>B_Ozonation_VINYON.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>2.9 particles</t>
+  </si>
+  <si>
+    <t>210 particles</t>
+  </si>
+  <si>
+    <t>B_BAC.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_BAC_PA.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_BAC_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>1.9 particles</t>
+  </si>
+  <si>
+    <t>B_BAC_VINYON.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>1.4 particles</t>
+  </si>
+  <si>
+    <t>195 particles</t>
+  </si>
+  <si>
+    <t>B_Flocc.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Flocc_PA.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Flocc_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>60 particles</t>
+  </si>
+  <si>
+    <t>B_Flocc_VINYON.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Sand.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Sand_PA.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Sand_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>15 particles</t>
+  </si>
+  <si>
+    <t>B_Sand_VINYON.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Treated.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Treated_PA.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>B_Treated_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>10 particles</t>
+  </si>
+  <si>
+    <t>B_Treated_VINYON.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>20 particles</t>
+  </si>
+  <si>
+    <t>0.15 particles</t>
+  </si>
+  <si>
+    <t>C_BioTreatment.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_BioTreatment_PET.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>0.05 particles</t>
+  </si>
+  <si>
+    <t>C_BioTreatment_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_BioTreatment_OTHERS.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>0.03 particles</t>
+  </si>
+  <si>
+    <t>0.02 particles</t>
+  </si>
+  <si>
+    <t>C_Sedimentation.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_Sedimentation_PET.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>0.06 particles</t>
+  </si>
+  <si>
+    <t>0.01 particles</t>
+  </si>
+  <si>
+    <t>C_Sedimentation_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_Sedimentation_OTHERS.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>0.11 particles</t>
+  </si>
+  <si>
+    <t>0.14 particles</t>
+  </si>
+  <si>
+    <t>0.07 particles</t>
+  </si>
+  <si>
+    <t>C_Ozonation.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_Ozonation_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>0.08 particles</t>
+  </si>
+  <si>
+    <t>C_Ozonation_OTHERS.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>0.04 particles</t>
+  </si>
+  <si>
+    <t>2.6 particles</t>
+  </si>
+  <si>
+    <t>C_BAC.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_BAC_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>1-5mm</t>
+  </si>
+  <si>
+    <t>0.09 particles</t>
+  </si>
+  <si>
+    <t>C_BAC_OTHERS.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_Flocc.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_Flocc_VINYL.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_Flocc_OTHERS.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_Sand.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>C_Sand_OTHERS.10.1016/j.scitotenv.2021.150545</t>
+  </si>
+  <si>
+    <t>1-10 um</t>
+  </si>
+  <si>
+    <t>1-50 um</t>
+  </si>
+  <si>
+    <t>5-100 um</t>
+  </si>
+  <si>
+    <t>Nethen_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>Holdorf_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>Aqua_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>Auqafina_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>Bisleri_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>Dasani_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>E-Pura_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>Evian_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>PlasticGerosteiner_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>GlassGerosteiner_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>Minalba_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>NestlePureLife_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>SanPellegrino_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>Wahaha_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>SingleUsePET_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>ResuablePET_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>GlassBottles_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>SingleUsePlastic_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>ReturnablePlastic_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>GlassBottles2_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>BeverageCartons_10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>&lt;1.5 um</t>
+  </si>
+  <si>
+    <t>1.5-5 um</t>
+  </si>
+  <si>
+    <t>&gt;10 um</t>
+  </si>
+  <si>
+    <t>MineralWater_SingleUsePET_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>MineralWater_ReusablePET_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>MineralWater_Glass_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>1178 particles/L</t>
+  </si>
+  <si>
+    <t>785 particles/L</t>
+  </si>
+  <si>
+    <t>228 particles/L</t>
+  </si>
+  <si>
+    <t>RawDrinkingWater_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>RawDrinkingWater.1_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>RawDrinkingWater.2_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>RawDrinkingWater.3_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>31-100%</t>
+  </si>
+  <si>
+    <t>TapWater_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>3760 particles/L</t>
+  </si>
+  <si>
+    <t>1520 particles/L</t>
+  </si>
+  <si>
+    <t>731 particles/L</t>
+  </si>
+  <si>
+    <t>RawWater_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>793 particles/L</t>
+  </si>
+  <si>
+    <t>136 particles/L</t>
+  </si>
+  <si>
+    <t>10-50 particles/L</t>
+  </si>
+  <si>
+    <t>1 particles/L</t>
+  </si>
+  <si>
+    <t>TreatedDrinkingWater2_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>50-150 um</t>
+  </si>
+  <si>
+    <t>&gt; 25um</t>
+  </si>
+  <si>
+    <t>20 um- 5 mm</t>
+  </si>
+  <si>
+    <t>MineralWaterPET_10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>Mintenig_10.1007/s11783-021-1492-5</t>
+  </si>
+  <si>
+    <t>Sarkar_10.1007/s11783-021-1492-5</t>
+  </si>
+  <si>
+    <t>Johnson_10.1007/s11783-021-1492-5</t>
+  </si>
+  <si>
+    <t>Dalmau-Soler_10.1007/s11783-021-1492-5</t>
+  </si>
+  <si>
+    <t>0-20 um</t>
+  </si>
+  <si>
+    <t>AverageAll_10.1016/j.envres.2022.112855</t>
+  </si>
+  <si>
+    <t>1-100 um</t>
+  </si>
+  <si>
+    <t>Pivokonsky1.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Pivokonsky2.10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>793 particles</t>
+  </si>
+  <si>
+    <t>4-10 um</t>
+  </si>
+  <si>
+    <t>136 particles</t>
+  </si>
+  <si>
+    <t>Finished.10.1016/j.scitotenv.2019.134520</t>
+  </si>
+  <si>
+    <t>April_DWTP.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>April_Tap.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>May_DWTP.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>May_Tap.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>June_DWTP.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>June_Tap.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>July_DWTP.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>July_Tap.10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>&lt;0.5 mm</t>
+  </si>
+  <si>
+    <t>0.5-1 mm</t>
+  </si>
+  <si>
+    <t>1-2 mm</t>
+  </si>
+  <si>
+    <t>2-5 mm</t>
+  </si>
+  <si>
+    <t>TCQS.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>SHN.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>CHQ.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>CHH.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>ZHB.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>DAS.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>XHS.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>HNZ.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>TCH.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>WHH.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Spr.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Sum.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Aut.10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Win.10.1016/j.scitotenv.2021.148001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -413,11 +947,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E85C7B-B7BE-9F4A-A81A-A464971ACF46}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:B123"/>
+    <sheetView tabSelected="1" topLeftCell="A338" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A370" sqref="A370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2466,6 +3002,3520 @@
         <v>68</v>
       </c>
     </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130" t="s">
+        <v>116</v>
+      </c>
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B134" t="s">
+        <v>120</v>
+      </c>
+      <c r="C134" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135" t="s">
+        <v>120</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>115</v>
+      </c>
+      <c r="B137" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>115</v>
+      </c>
+      <c r="B138" t="s">
+        <v>123</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" t="s">
+        <v>127</v>
+      </c>
+      <c r="C139" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>126</v>
+      </c>
+      <c r="B140" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" t="s">
+        <v>49</v>
+      </c>
+      <c r="D140" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>126</v>
+      </c>
+      <c r="B141" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>126</v>
+      </c>
+      <c r="B142" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>126</v>
+      </c>
+      <c r="B143" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>126</v>
+      </c>
+      <c r="B144" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>126</v>
+      </c>
+      <c r="B146" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>126</v>
+      </c>
+      <c r="B149" t="s">
+        <v>131</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>132</v>
+      </c>
+      <c r="B150" t="s">
+        <v>133</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>132</v>
+      </c>
+      <c r="B152" t="s">
+        <v>135</v>
+      </c>
+      <c r="C152" t="s">
+        <v>71</v>
+      </c>
+      <c r="D152" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>132</v>
+      </c>
+      <c r="B153" t="s">
+        <v>135</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" t="s">
+        <v>137</v>
+      </c>
+      <c r="C156" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157" t="s">
+        <v>54</v>
+      </c>
+      <c r="D157" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" t="s">
+        <v>137</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>132</v>
+      </c>
+      <c r="B159" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>140</v>
+      </c>
+      <c r="B160" t="s">
+        <v>141</v>
+      </c>
+      <c r="C160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" t="s">
+        <v>141</v>
+      </c>
+      <c r="C161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>140</v>
+      </c>
+      <c r="B162" t="s">
+        <v>141</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163" t="s">
+        <v>141</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>140</v>
+      </c>
+      <c r="B164" t="s">
+        <v>142</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" t="s">
+        <v>142</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B166" t="s">
+        <v>144</v>
+      </c>
+      <c r="C166" t="s">
+        <v>54</v>
+      </c>
+      <c r="D166" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>140</v>
+      </c>
+      <c r="B167" t="s">
+        <v>144</v>
+      </c>
+      <c r="C167" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>140</v>
+      </c>
+      <c r="B168" t="s">
+        <v>144</v>
+      </c>
+      <c r="C168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" t="s">
+        <v>144</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" t="s">
+        <v>148</v>
+      </c>
+      <c r="C170" t="s">
+        <v>54</v>
+      </c>
+      <c r="D170" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171" t="s">
+        <v>148</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" t="s">
+        <v>148</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>147</v>
+      </c>
+      <c r="B173" t="s">
+        <v>149</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>147</v>
+      </c>
+      <c r="B174" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" t="s">
+        <v>151</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>147</v>
+      </c>
+      <c r="B176" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" t="s">
+        <v>71</v>
+      </c>
+      <c r="D176" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>147</v>
+      </c>
+      <c r="B177" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" t="s">
+        <v>49</v>
+      </c>
+      <c r="D177" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>147</v>
+      </c>
+      <c r="B178" t="s">
+        <v>151</v>
+      </c>
+      <c r="C178" t="s">
+        <v>54</v>
+      </c>
+      <c r="D178" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>147</v>
+      </c>
+      <c r="B179" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>147</v>
+      </c>
+      <c r="B180" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181" t="s">
+        <v>153</v>
+      </c>
+      <c r="C181" t="s">
+        <v>54</v>
+      </c>
+      <c r="D181" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>152</v>
+      </c>
+      <c r="B182" t="s">
+        <v>153</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" t="s">
+        <v>153</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>152</v>
+      </c>
+      <c r="B184" t="s">
+        <v>154</v>
+      </c>
+      <c r="C184" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" t="s">
+        <v>154</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>152</v>
+      </c>
+      <c r="B186" t="s">
+        <v>154</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>152</v>
+      </c>
+      <c r="B187" t="s">
+        <v>156</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>152</v>
+      </c>
+      <c r="B188" t="s">
+        <v>156</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>157</v>
+      </c>
+      <c r="B189" t="s">
+        <v>158</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>157</v>
+      </c>
+      <c r="B190" t="s">
+        <v>158</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>157</v>
+      </c>
+      <c r="B191" t="s">
+        <v>159</v>
+      </c>
+      <c r="C191" t="s">
+        <v>54</v>
+      </c>
+      <c r="D191" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>157</v>
+      </c>
+      <c r="B192" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>157</v>
+      </c>
+      <c r="B193" t="s">
+        <v>161</v>
+      </c>
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>164</v>
+      </c>
+      <c r="B194" t="s">
+        <v>165</v>
+      </c>
+      <c r="C194" t="s">
+        <v>49</v>
+      </c>
+      <c r="D194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>164</v>
+      </c>
+      <c r="B195" t="s">
+        <v>167</v>
+      </c>
+      <c r="C195" t="s">
+        <v>71</v>
+      </c>
+      <c r="D195" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>164</v>
+      </c>
+      <c r="B196" t="s">
+        <v>167</v>
+      </c>
+      <c r="C196" t="s">
+        <v>49</v>
+      </c>
+      <c r="D196" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>164</v>
+      </c>
+      <c r="B197" t="s">
+        <v>168</v>
+      </c>
+      <c r="C197" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>164</v>
+      </c>
+      <c r="B198" t="s">
+        <v>168</v>
+      </c>
+      <c r="C198" t="s">
+        <v>49</v>
+      </c>
+      <c r="D198" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>171</v>
+      </c>
+      <c r="B199" t="s">
+        <v>172</v>
+      </c>
+      <c r="C199" t="s">
+        <v>71</v>
+      </c>
+      <c r="D199" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>171</v>
+      </c>
+      <c r="B200" t="s">
+        <v>172</v>
+      </c>
+      <c r="C200" t="s">
+        <v>49</v>
+      </c>
+      <c r="D200" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>171</v>
+      </c>
+      <c r="B201" t="s">
+        <v>175</v>
+      </c>
+      <c r="C201" t="s">
+        <v>71</v>
+      </c>
+      <c r="D201" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>171</v>
+      </c>
+      <c r="B202" t="s">
+        <v>175</v>
+      </c>
+      <c r="C202" t="s">
+        <v>49</v>
+      </c>
+      <c r="D202" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>171</v>
+      </c>
+      <c r="B203" t="s">
+        <v>176</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>171</v>
+      </c>
+      <c r="B204" t="s">
+        <v>176</v>
+      </c>
+      <c r="C204" t="s">
+        <v>71</v>
+      </c>
+      <c r="D204" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>171</v>
+      </c>
+      <c r="B205" t="s">
+        <v>176</v>
+      </c>
+      <c r="C205" t="s">
+        <v>49</v>
+      </c>
+      <c r="D205" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>180</v>
+      </c>
+      <c r="B206" t="s">
+        <v>181</v>
+      </c>
+      <c r="C206" t="s">
+        <v>71</v>
+      </c>
+      <c r="D206" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>180</v>
+      </c>
+      <c r="B207" t="s">
+        <v>181</v>
+      </c>
+      <c r="C207" t="s">
+        <v>49</v>
+      </c>
+      <c r="D207" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>180</v>
+      </c>
+      <c r="B208" t="s">
+        <v>183</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209" t="s">
+        <v>183</v>
+      </c>
+      <c r="C209" t="s">
+        <v>71</v>
+      </c>
+      <c r="D209" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>180</v>
+      </c>
+      <c r="B210" t="s">
+        <v>183</v>
+      </c>
+      <c r="C210" t="s">
+        <v>49</v>
+      </c>
+      <c r="D210" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>186</v>
+      </c>
+      <c r="B211" t="s">
+        <v>187</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>186</v>
+      </c>
+      <c r="B212" t="s">
+        <v>187</v>
+      </c>
+      <c r="C212" t="s">
+        <v>71</v>
+      </c>
+      <c r="D212" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>186</v>
+      </c>
+      <c r="B213" t="s">
+        <v>187</v>
+      </c>
+      <c r="C213" t="s">
+        <v>49</v>
+      </c>
+      <c r="D213" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>186</v>
+      </c>
+      <c r="B214" t="s">
+        <v>190</v>
+      </c>
+      <c r="C214" t="s">
+        <v>188</v>
+      </c>
+      <c r="D214" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215" t="s">
+        <v>190</v>
+      </c>
+      <c r="C215" t="s">
+        <v>71</v>
+      </c>
+      <c r="D215" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>186</v>
+      </c>
+      <c r="B216" t="s">
+        <v>190</v>
+      </c>
+      <c r="C216" t="s">
+        <v>49</v>
+      </c>
+      <c r="D216" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>191</v>
+      </c>
+      <c r="B217" t="s">
+        <v>192</v>
+      </c>
+      <c r="C217" t="s">
+        <v>71</v>
+      </c>
+      <c r="D217" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>191</v>
+      </c>
+      <c r="B218" t="s">
+        <v>192</v>
+      </c>
+      <c r="C218" t="s">
+        <v>49</v>
+      </c>
+      <c r="D218" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>191</v>
+      </c>
+      <c r="B219" t="s">
+        <v>193</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>191</v>
+      </c>
+      <c r="B220" t="s">
+        <v>193</v>
+      </c>
+      <c r="C220" t="s">
+        <v>71</v>
+      </c>
+      <c r="D220" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>191</v>
+      </c>
+      <c r="B221" t="s">
+        <v>193</v>
+      </c>
+      <c r="C221" t="s">
+        <v>49</v>
+      </c>
+      <c r="D221" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>194</v>
+      </c>
+      <c r="B222" t="s">
+        <v>195</v>
+      </c>
+      <c r="C222" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>194</v>
+      </c>
+      <c r="B223" t="s">
+        <v>195</v>
+      </c>
+      <c r="C223" t="s">
+        <v>71</v>
+      </c>
+      <c r="D223" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>199</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>201</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>54</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>202</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>54</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>203</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>54</v>
+      </c>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>204</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>205</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>206</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>54</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>207</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>54</v>
+      </c>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>208</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>54</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>209</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>210</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>54</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>211</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>54</v>
+      </c>
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>212</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>54</v>
+      </c>
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>213</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>196</v>
+      </c>
+      <c r="D238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>214</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>197</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>215</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>197</v>
+      </c>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>216</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>198</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>217</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>198</v>
+      </c>
+      <c r="D242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>218</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>198</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>219</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>198</v>
+      </c>
+      <c r="D244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>223</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>220</v>
+      </c>
+      <c r="D245" s="5">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>223</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>221</v>
+      </c>
+      <c r="D246" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>223</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>223</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>222</v>
+      </c>
+      <c r="D248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>224</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>220</v>
+      </c>
+      <c r="D249" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>224</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>221</v>
+      </c>
+      <c r="D250" s="5">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>224</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>224</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>222</v>
+      </c>
+      <c r="D252" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>225</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>220</v>
+      </c>
+      <c r="D253" s="5">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>225</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>221</v>
+      </c>
+      <c r="D254" s="5">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>225</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="5">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>225</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>222</v>
+      </c>
+      <c r="D256" s="5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>229</v>
+      </c>
+      <c r="B257" t="s">
+        <v>230</v>
+      </c>
+      <c r="C257" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>229</v>
+      </c>
+      <c r="B258" t="s">
+        <v>230</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>229</v>
+      </c>
+      <c r="B259" t="s">
+        <v>230</v>
+      </c>
+      <c r="C259" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>229</v>
+      </c>
+      <c r="B260" t="s">
+        <v>231</v>
+      </c>
+      <c r="C260" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>229</v>
+      </c>
+      <c r="B261" t="s">
+        <v>231</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>229</v>
+      </c>
+      <c r="B262" t="s">
+        <v>231</v>
+      </c>
+      <c r="C262" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>229</v>
+      </c>
+      <c r="B263" t="s">
+        <v>232</v>
+      </c>
+      <c r="C263" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>229</v>
+      </c>
+      <c r="B264" t="s">
+        <v>232</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>229</v>
+      </c>
+      <c r="B265" t="s">
+        <v>232</v>
+      </c>
+      <c r="C265" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>234</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>197</v>
+      </c>
+      <c r="D266" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>238</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>238</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>238</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>243</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>16</v>
+      </c>
+      <c r="D270" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>243</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>243</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>241</v>
+      </c>
+      <c r="D272" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>247</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>196</v>
+      </c>
+      <c r="D273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>248</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>244</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>249</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>245</v>
+      </c>
+      <c r="D275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>250</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>245</v>
+      </c>
+      <c r="D276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>251</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>246</v>
+      </c>
+      <c r="D277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>253</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>252</v>
+      </c>
+      <c r="D278" s="5">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>253</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="5">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>255</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>254</v>
+      </c>
+      <c r="D280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>255</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>256</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>254</v>
+      </c>
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>256</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>260</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>260</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>258</v>
+      </c>
+      <c r="D285" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>260</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>19</v>
+      </c>
+      <c r="D286" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>261</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>196</v>
+      </c>
+      <c r="D287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>261</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>261</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>261</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>262</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>196</v>
+      </c>
+      <c r="D291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>262</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>262</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>262</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>263</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>196</v>
+      </c>
+      <c r="D295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>263</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>263</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>263</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>264</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>196</v>
+      </c>
+      <c r="D299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>264</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>264</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>264</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>265</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>196</v>
+      </c>
+      <c r="D303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>265</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>265</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>265</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>266</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>196</v>
+      </c>
+      <c r="D307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>266</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>19</v>
+      </c>
+      <c r="D308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>266</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>266</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>267</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>196</v>
+      </c>
+      <c r="D311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>267</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>19</v>
+      </c>
+      <c r="D312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>267</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>267</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>268</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>196</v>
+      </c>
+      <c r="D315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>268</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>268</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>268</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>273</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>269</v>
+      </c>
+      <c r="D319" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>273</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>270</v>
+      </c>
+      <c r="D320" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>273</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>271</v>
+      </c>
+      <c r="D321" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>273</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>272</v>
+      </c>
+      <c r="D322" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>274</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>269</v>
+      </c>
+      <c r="D323" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>274</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>270</v>
+      </c>
+      <c r="D324" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>274</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>271</v>
+      </c>
+      <c r="D325" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>274</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>272</v>
+      </c>
+      <c r="D326" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>275</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>269</v>
+      </c>
+      <c r="D327" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>275</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>270</v>
+      </c>
+      <c r="D328" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>275</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>271</v>
+      </c>
+      <c r="D329" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>275</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>272</v>
+      </c>
+      <c r="D330" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>276</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>269</v>
+      </c>
+      <c r="D331" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>276</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>270</v>
+      </c>
+      <c r="D332" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>276</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>271</v>
+      </c>
+      <c r="D333" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>276</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>272</v>
+      </c>
+      <c r="D334" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>277</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>269</v>
+      </c>
+      <c r="D335" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>277</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>270</v>
+      </c>
+      <c r="D336" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>277</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>271</v>
+      </c>
+      <c r="D337" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>277</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>272</v>
+      </c>
+      <c r="D338" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>278</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>269</v>
+      </c>
+      <c r="D339" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>278</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>270</v>
+      </c>
+      <c r="D340" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>278</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>271</v>
+      </c>
+      <c r="D341" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>278</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>272</v>
+      </c>
+      <c r="D342" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>279</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>269</v>
+      </c>
+      <c r="D343" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>279</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>270</v>
+      </c>
+      <c r="D344" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>279</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>271</v>
+      </c>
+      <c r="D345" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>279</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>272</v>
+      </c>
+      <c r="D346" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>280</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>269</v>
+      </c>
+      <c r="D347" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>280</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>270</v>
+      </c>
+      <c r="D348" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>280</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>271</v>
+      </c>
+      <c r="D349" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>280</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>272</v>
+      </c>
+      <c r="D350" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>281</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>269</v>
+      </c>
+      <c r="D351" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>281</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>270</v>
+      </c>
+      <c r="D352" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>281</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>271</v>
+      </c>
+      <c r="D353" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>281</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>272</v>
+      </c>
+      <c r="D354" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>282</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>269</v>
+      </c>
+      <c r="D355" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>282</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>270</v>
+      </c>
+      <c r="D356" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>282</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>271</v>
+      </c>
+      <c r="D357" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>282</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>272</v>
+      </c>
+      <c r="D358" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>283</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>269</v>
+      </c>
+      <c r="D359" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>283</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>270</v>
+      </c>
+      <c r="D360" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>283</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>271</v>
+      </c>
+      <c r="D361" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>283</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>272</v>
+      </c>
+      <c r="D362" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>284</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>269</v>
+      </c>
+      <c r="D363" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>284</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>270</v>
+      </c>
+      <c r="D364" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>284</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>271</v>
+      </c>
+      <c r="D365" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>284</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>272</v>
+      </c>
+      <c r="D366" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>285</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>269</v>
+      </c>
+      <c r="D367" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>285</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>270</v>
+      </c>
+      <c r="D368" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>285</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>271</v>
+      </c>
+      <c r="D369" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>285</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>272</v>
+      </c>
+      <c r="D370" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>286</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>269</v>
+      </c>
+      <c r="D371" s="4">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>286</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>270</v>
+      </c>
+      <c r="D372" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>286</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>271</v>
+      </c>
+      <c r="D373" s="4">
+        <v>0.30230000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>286</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>272</v>
+      </c>
+      <c r="D374" s="4">
+        <v>0.2228</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
